--- a/rp/推广日志.xlsx
+++ b/rp/推广日志.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="qq群" sheetId="1" r:id="rId1"/>
+    <sheet name="微信公众号" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否发送请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否加入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发送广告次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +82,37 @@
   </si>
   <si>
     <t>对口qq号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职写作</t>
+  </si>
+  <si>
+    <t>是否已发送请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小宝指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,20 +481,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,66 +517,108 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q5" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q9" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q11" t="s">
-        <v>17</v>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$P:$P</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
